--- a/TestData/Contacts.xlsx
+++ b/TestData/Contacts.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587F5250-E0BB-47BA-85C1-E1CF7122A182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2541C6CE-E1B6-4CE7-A53D-EF0944F2EFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4224" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewContactsDetailstest" sheetId="1" r:id="rId1"/>
+    <sheet name="DeleteContacts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>runmode</t>
   </si>
@@ -47,18 +48,6 @@
     <t>Department name</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
     <t>Dr.</t>
   </si>
   <si>
@@ -75,13 +64,43 @@
   </si>
   <si>
     <t>Chris White</t>
+  </si>
+  <si>
+    <t>A_Test1</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>A_Test2</t>
+  </si>
+  <si>
+    <t>A_Test3</t>
+  </si>
+  <si>
+    <t>A_Test4</t>
+  </si>
+  <si>
+    <t>A_Test5</t>
+  </si>
+  <si>
+    <t>A1_Position</t>
+  </si>
+  <si>
+    <t>A2_Position</t>
+  </si>
+  <si>
+    <t>A1_Department</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +112,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -475,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,47 +545,117 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E874ABF-6C2E-4B60-B26A-B150F533C2DD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
